--- a/Files/Urls/InputUrls.xlsx
+++ b/Files/Urls/InputUrls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahota\PycharmProjects\GA\Files\Urls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A00B9C-9679-45AE-9FFC-205DA9591B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900EB7BB-2801-4D8D-823E-BBBA04AD44DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Urls</t>
   </si>
@@ -36,16 +36,19 @@
     <t>viewType</t>
   </si>
   <si>
-    <t>https://www.health.com/condition/rare-disorders/myotonic-dystrophy-ventricular-tachycardia-gilbert-gottfried</t>
-  </si>
-  <si>
     <t>brand</t>
   </si>
   <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>STRUCTUREDCONTENT</t>
+    <t>https://www.parents.com/kindred/anthony-anderson-says-growing-up-black-gave-him-his-sense-of-humor-you-have-to-laugh-to-keep-from-crying/</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>BIO</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -416,20 +419,26 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{0634F0FB-E6F7-4E6F-AFFA-C6A9443AAFF7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Files/Urls/InputUrls.xlsx
+++ b/Files/Urls/InputUrls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahota\PycharmProjects\GA\Files\Urls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900EB7BB-2801-4D8D-823E-BBBA04AD44DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC4B7C3-D183-4C34-9CFE-5D3EA19AFF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Urls</t>
   </si>
@@ -39,16 +39,13 @@
     <t>brand</t>
   </si>
   <si>
-    <t>https://www.parents.com/kindred/anthony-anderson-says-growing-up-black-gave-him-his-sense-of-humor-you-have-to-laugh-to-keep-from-crying/</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>BIO</t>
+    <t>https://www-instyle-ddm-staging.a-ue1.instyle.com/</t>
+  </si>
+  <si>
+    <t>instyle</t>
+  </si>
+  <si>
+    <t>TAXONOMY</t>
   </si>
 </sst>
 </file>
@@ -392,7 +389,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,23 +419,17 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{0634F0FB-E6F7-4E6F-AFFA-C6A9443AAFF7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>